--- a/iocBoot/CARS_XPS_Inventory.xlsx
+++ b/iocBoot/CARS_XPS_Inventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="XPS Driver Cards" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>XPS model</t>
   </si>
@@ -72,15 +72,9 @@
     <t>13-ID-A/E mono</t>
   </si>
   <si>
-    <t>13-ID-C GPD</t>
-  </si>
-  <si>
     <t>13-ID-D DAC</t>
   </si>
   <si>
-    <t>13-BM-C GPD</t>
-  </si>
-  <si>
     <t>13-BM-C DAC</t>
   </si>
   <si>
@@ -177,19 +171,73 @@
     <t>Total spare</t>
   </si>
   <si>
-    <t>Spare</t>
-  </si>
-  <si>
     <t>1.4.6</t>
   </si>
   <si>
     <t>newport-xps13</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>164.54.160.14</t>
+  </si>
+  <si>
+    <t>164.54.160.3</t>
+  </si>
+  <si>
+    <t>164.54.160.124</t>
+  </si>
+  <si>
+    <t>164.54.160.147</t>
+  </si>
+  <si>
+    <t>164.54.160.83</t>
+  </si>
+  <si>
+    <t>164.54.160.4</t>
+  </si>
+  <si>
+    <t>164.54.160.190</t>
+  </si>
+  <si>
+    <t>164.54.160.56</t>
+  </si>
+  <si>
+    <t>13-BM-C GPD (base)</t>
+  </si>
+  <si>
+    <t>164.54.160.180</t>
+  </si>
+  <si>
+    <t>164.54.160.34</t>
+  </si>
+  <si>
+    <t>164.54.160.131</t>
+  </si>
+  <si>
+    <t>13-ID-C GPD (base)</t>
+  </si>
+  <si>
+    <t>13-BM-C GPD (circles)</t>
+  </si>
+  <si>
+    <t>164.54.160.55</t>
+  </si>
+  <si>
+    <t>13-ID-C GPD (circles)</t>
+  </si>
+  <si>
+    <t>Lab (spare)</t>
+  </si>
+  <si>
+    <t>164.54.160.41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,6 +300,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -299,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,12 +605,13 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -572,8 +624,11 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -581,13 +636,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -595,139 +653,169 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -735,24 +823,30 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -812,15 +906,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -845,7 +939,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -878,7 +972,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>12</v>
@@ -913,7 +1007,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -944,7 +1038,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -969,7 +1063,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -998,7 +1092,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1023,7 +1117,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1052,7 +1146,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1073,7 +1167,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>

--- a/iocBoot/CARS_XPS_Inventory.xlsx
+++ b/iocBoot/CARS_XPS_Inventory.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="XPS Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="XPS Driver Cards" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="labels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
   <si>
     <t>XPS model</t>
   </si>
@@ -111,127 +111,220 @@
     <t>newport-xps8</t>
   </si>
   <si>
+    <t>newport-xps9</t>
+  </si>
+  <si>
+    <t>13-BM-D LVP</t>
+  </si>
+  <si>
+    <t>newport-xps10</t>
+  </si>
+  <si>
+    <t>newport-xps11</t>
+  </si>
+  <si>
+    <t>newport-xps12</t>
+  </si>
+  <si>
+    <t>BM-C GPD</t>
+  </si>
+  <si>
+    <t>BM-C DAC</t>
+  </si>
+  <si>
+    <t>XPS-DRV00 in use</t>
+  </si>
+  <si>
+    <t>XPS-DRV01 in use</t>
+  </si>
+  <si>
+    <t>XPS-DRV02 in use</t>
+  </si>
+  <si>
+    <t>XPS-DRV03 in use</t>
+  </si>
+  <si>
+    <t>XPS-DRVM5 in use</t>
+  </si>
+  <si>
+    <t>XPS-DRV00 spare</t>
+  </si>
+  <si>
+    <t>XPS-DRV01 spare</t>
+  </si>
+  <si>
+    <t>XPS-DRV02 spare</t>
+  </si>
+  <si>
+    <t>XPS-DRV03 spare</t>
+  </si>
+  <si>
+    <t>XPS-DRVM5 spare</t>
+  </si>
+  <si>
+    <t>Total in use</t>
+  </si>
+  <si>
+    <t>Total spare</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>newport-xps13</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>164.54.160.14</t>
+  </si>
+  <si>
+    <t>164.54.160.3</t>
+  </si>
+  <si>
+    <t>164.54.160.124</t>
+  </si>
+  <si>
+    <t>164.54.160.147</t>
+  </si>
+  <si>
+    <t>164.54.160.83</t>
+  </si>
+  <si>
+    <t>164.54.160.4</t>
+  </si>
+  <si>
+    <t>164.54.160.190</t>
+  </si>
+  <si>
+    <t>164.54.160.56</t>
+  </si>
+  <si>
+    <t>13-BM-C GPD (base)</t>
+  </si>
+  <si>
+    <t>164.54.160.180</t>
+  </si>
+  <si>
+    <t>164.54.160.34</t>
+  </si>
+  <si>
+    <t>164.54.160.131</t>
+  </si>
+  <si>
+    <t>13-ID-C GPD (base)</t>
+  </si>
+  <si>
+    <t>13-BM-C GPD (circles)</t>
+  </si>
+  <si>
+    <t>164.54.160.55</t>
+  </si>
+  <si>
+    <t>13-ID-C GPD (circles)</t>
+  </si>
+  <si>
+    <t>Lab (spare)</t>
+  </si>
+  <si>
+    <t>164.54.160.41</t>
+  </si>
+  <si>
+    <t>XPS-D8</t>
+  </si>
+  <si>
+    <t>newport-xps14</t>
+  </si>
+  <si>
+    <t>164.54.160.210</t>
+  </si>
+  <si>
+    <t>164.54.160.211</t>
+  </si>
+  <si>
+    <t>xps5</t>
+  </si>
+  <si>
+    <t>xps13</t>
+  </si>
+  <si>
+    <t>xps6</t>
+  </si>
+  <si>
+    <t>xps7</t>
+  </si>
+  <si>
+    <t>xps3</t>
+  </si>
+  <si>
+    <t>xps4</t>
+  </si>
+  <si>
+    <t>xps8</t>
+  </si>
+  <si>
+    <t>xps2</t>
+  </si>
+  <si>
+    <t>xps11</t>
+  </si>
+  <si>
+    <t>xps10</t>
+  </si>
+  <si>
+    <t>xps12</t>
+  </si>
+  <si>
+    <t>xps9</t>
+  </si>
+  <si>
+    <t>xps14</t>
+  </si>
+  <si>
+    <t>xps1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>to be xps 15</t>
+  </si>
+  <si>
+    <t>Mark's office</t>
+  </si>
+  <si>
+    <t>to be newport-xps16</t>
+  </si>
+  <si>
+    <t>to be xps16</t>
+  </si>
+  <si>
+    <t>newport-xps16</t>
+  </si>
+  <si>
+    <t>newport-xps15</t>
+  </si>
+  <si>
+    <t>164.54.160.71</t>
+  </si>
+  <si>
     <t>2.5.1</t>
   </si>
   <si>
-    <t>newport-xps9</t>
-  </si>
-  <si>
-    <t>13-BM-D LVP</t>
-  </si>
-  <si>
-    <t>newport-xps10</t>
-  </si>
-  <si>
-    <t>newport-xps11</t>
-  </si>
-  <si>
-    <t>newport-xps12</t>
-  </si>
-  <si>
-    <t>BM-C GPD</t>
-  </si>
-  <si>
-    <t>BM-C DAC</t>
-  </si>
-  <si>
-    <t>XPS-DRV00 in use</t>
-  </si>
-  <si>
-    <t>XPS-DRV01 in use</t>
-  </si>
-  <si>
-    <t>XPS-DRV02 in use</t>
-  </si>
-  <si>
-    <t>XPS-DRV03 in use</t>
-  </si>
-  <si>
-    <t>XPS-DRVM5 in use</t>
-  </si>
-  <si>
-    <t>XPS-DRV00 spare</t>
-  </si>
-  <si>
-    <t>XPS-DRV01 spare</t>
-  </si>
-  <si>
-    <t>XPS-DRV02 spare</t>
-  </si>
-  <si>
-    <t>XPS-DRV03 spare</t>
-  </si>
-  <si>
-    <t>XPS-DRVM5 spare</t>
-  </si>
-  <si>
-    <t>Total in use</t>
-  </si>
-  <si>
-    <t>Total spare</t>
-  </si>
-  <si>
-    <t>1.4.6</t>
-  </si>
-  <si>
-    <t>newport-xps13</t>
-  </si>
-  <si>
-    <t>IP address</t>
-  </si>
-  <si>
-    <t>164.54.160.14</t>
-  </si>
-  <si>
-    <t>164.54.160.3</t>
-  </si>
-  <si>
-    <t>164.54.160.124</t>
-  </si>
-  <si>
-    <t>164.54.160.147</t>
-  </si>
-  <si>
-    <t>164.54.160.83</t>
-  </si>
-  <si>
-    <t>164.54.160.4</t>
-  </si>
-  <si>
-    <t>164.54.160.190</t>
-  </si>
-  <si>
-    <t>164.54.160.56</t>
-  </si>
-  <si>
-    <t>13-BM-C GPD (base)</t>
-  </si>
-  <si>
-    <t>164.54.160.180</t>
-  </si>
-  <si>
-    <t>164.54.160.34</t>
-  </si>
-  <si>
-    <t>164.54.160.131</t>
-  </si>
-  <si>
-    <t>13-ID-C GPD (base)</t>
-  </si>
-  <si>
-    <t>13-BM-C GPD (circles)</t>
-  </si>
-  <si>
-    <t>164.54.160.55</t>
-  </si>
-  <si>
-    <t>13-ID-C GPD (circles)</t>
-  </si>
-  <si>
-    <t>Lab (spare)</t>
-  </si>
-  <si>
-    <t>164.54.160.41</t>
+    <t>XPS-D-N13006</t>
+  </si>
+  <si>
+    <t>XPS-D-N13014</t>
   </si>
 </sst>
 </file>
@@ -263,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -271,11 +364,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,6 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,16 +700,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
@@ -625,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,18 +760,18 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -676,12 +783,12 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -693,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,29 +834,29 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -761,7 +868,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,30 +879,30 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,16 +910,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,18 +930,18 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -843,10 +950,61 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +1049,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -906,15 +1064,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -939,7 +1097,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -972,7 +1130,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>12</v>
@@ -1007,7 +1165,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1038,7 +1196,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1063,7 +1221,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1092,7 +1250,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1117,7 +1275,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1146,7 +1304,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1167,7 +1325,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1189,12 +1347,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D16">
+    <sortCondition ref="C2:C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="120" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/iocBoot/CARS_XPS_Inventory.xlsx
+++ b/iocBoot/CARS_XPS_Inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>XPS model</t>
   </si>
@@ -315,9 +315,6 @@
     <t>newport-xps15</t>
   </si>
   <si>
-    <t>164.54.160.71</t>
-  </si>
-  <si>
     <t>2.5.1</t>
   </si>
   <si>
@@ -325,6 +322,84 @@
   </si>
   <si>
     <t>XPS-D-N13014</t>
+  </si>
+  <si>
+    <t>10.54.160.14</t>
+  </si>
+  <si>
+    <t>Static/dynamic</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>10.54.160.5</t>
+  </si>
+  <si>
+    <t>10.54.160.56</t>
+  </si>
+  <si>
+    <t>10.54.160.34</t>
+  </si>
+  <si>
+    <t>10.54.160.180</t>
+  </si>
+  <si>
+    <t>10.54.160.55</t>
+  </si>
+  <si>
+    <t>10.54.160.83</t>
+  </si>
+  <si>
+    <t>10.54.160.131</t>
+  </si>
+  <si>
+    <t>10.54.160.190</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Dynamic does not work</t>
+  </si>
+  <si>
+    <t>10.54.160.4</t>
+  </si>
+  <si>
+    <t>10.54.160.211</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>OFFLINE, Sept. 9, 2020</t>
+  </si>
+  <si>
+    <t>10.54.160.147</t>
+  </si>
+  <si>
+    <t>10.54.160.41</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>10.54.160.210</t>
+  </si>
+  <si>
+    <t>Questionable, dynamic only worked after first setting new IP static</t>
+  </si>
+  <si>
+    <t>Spare lift table</t>
+  </si>
+  <si>
+    <t>10.54.160.124</t>
+  </si>
+  <si>
+    <t>Lab spare</t>
+  </si>
+  <si>
+    <t>10.54.160.71</t>
   </si>
 </sst>
 </file>
@@ -700,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,12 +788,12 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -734,8 +809,11 @@
       <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -749,10 +827,13 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -766,10 +847,13 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -777,16 +861,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -800,10 +887,13 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -817,80 +907,101 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -899,83 +1010,110 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -987,24 +1125,30 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/iocBoot/CARS_XPS_Inventory.xlsx
+++ b/iocBoot/CARS_XPS_Inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
   <si>
     <t>XPS model</t>
   </si>
@@ -372,27 +372,18 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>OFFLINE, Sept. 9, 2020</t>
-  </si>
-  <si>
     <t>10.54.160.147</t>
   </si>
   <si>
     <t>10.54.160.41</t>
   </si>
   <si>
-    <t>Spare</t>
-  </si>
-  <si>
     <t>10.54.160.210</t>
   </si>
   <si>
     <t>Questionable, dynamic only worked after first setting new IP static</t>
   </si>
   <si>
-    <t>Spare lift table</t>
-  </si>
-  <si>
     <t>10.54.160.124</t>
   </si>
   <si>
@@ -400,6 +391,21 @@
   </si>
   <si>
     <t>10.54.160.71</t>
+  </si>
+  <si>
+    <t>13-BM-D TOMO</t>
+  </si>
+  <si>
+    <t>newport-xps17</t>
+  </si>
+  <si>
+    <t>10.54.160.40</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Soller slits (portable)</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>104</v>
@@ -895,7 +901,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -915,25 +921,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,59 +944,59 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
         <v>104</v>
@@ -1001,30 +1004,27 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1033,10 +1033,10 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>113</v>
@@ -1047,73 +1047,73 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>104</v>
       </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1122,10 +1122,10 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -1133,21 +1133,41 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>104</v>
       </c>
     </row>
